--- a/Tasks1.xlsx
+++ b/Tasks1.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
